--- a/detection_analysis.xlsx
+++ b/detection_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\eeg_pong-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CC2F3EB-1E2A-456D-8FC0-1E40B74FCAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300E106D-D269-4FDA-9354-18F64C9BEB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49F16592-F7EE-428B-A4F2-2F601365D316}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{49F16592-F7EE-428B-A4F2-2F601365D316}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Participant</t>
   </si>
@@ -66,13 +66,16 @@
   </si>
   <si>
     <t>F1</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -437,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67597E98-0A0F-46D1-B97A-8CCDC65637AF}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -501,6 +505,122 @@
       </c>
       <c r="I2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>0.25</v>
+      </c>
+      <c r="H3">
+        <v>0.08</v>
+      </c>
+      <c r="I3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0.82</v>
+      </c>
+      <c r="H5">
+        <v>0.75</v>
+      </c>
+      <c r="I5">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.66666667000000002</v>
+      </c>
+      <c r="I6">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/detection_analysis.xlsx
+++ b/detection_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\eeg_pong-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300E106D-D269-4FDA-9354-18F64C9BEB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4C3E9B-BC98-4A3D-AB62-E464ECAC59F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{49F16592-F7EE-428B-A4F2-2F601365D316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Participant</t>
   </si>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67597E98-0A0F-46D1-B97A-8CCDC65637AF}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,22 +518,22 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -621,6 +621,64 @@
       </c>
       <c r="I6">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>0.25</v>
+      </c>
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+      <c r="I7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/detection_analysis.xlsx
+++ b/detection_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\eeg_pong-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4C3E9B-BC98-4A3D-AB62-E464ECAC59F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F216919-300C-4DE2-8FDF-F6C2380C9D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{49F16592-F7EE-428B-A4F2-2F601365D316}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49F16592-F7EE-428B-A4F2-2F601365D316}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67597E98-0A0F-46D1-B97A-8CCDC65637AF}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -507,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -594,7 +594,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -623,7 +623,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -652,7 +652,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -679,6 +679,32 @@
       </c>
       <c r="I8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="D9" s="1">
+        <f>AVERAGE(D2:D8)</f>
+        <v>9.7142857142857135</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ref="E9:I9" si="0">AVERAGE(E2:E8)</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.86714285714285722</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80952380999999995</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83285714285714285</v>
       </c>
     </row>
   </sheetData>

--- a/detection_analysis.xlsx
+++ b/detection_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\eeg_pong-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F216919-300C-4DE2-8FDF-F6C2380C9D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF616D1-5F65-4F71-92BC-4A136042749D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49F16592-F7EE-428B-A4F2-2F601365D316}"/>
+    <workbookView xWindow="13236" yWindow="3012" windowWidth="12756" windowHeight="9192" xr2:uid="{49F16592-F7EE-428B-A4F2-2F601365D316}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Participant</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Actual blink</t>
+  </si>
+  <si>
+    <t>predicted blink</t>
+  </si>
+  <si>
+    <t>Actual no blink</t>
+  </si>
+  <si>
+    <t>predicted no blink</t>
   </si>
 </sst>
 </file>
@@ -441,13 +453,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67597E98-0A0F-46D1-B97A-8CCDC65637AF}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="5" max="5" width="12.09765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -707,6 +722,39 @@
         <v>0.83285714285714285</v>
       </c>
     </row>
+    <row r="13" spans="1:9">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <f>SUM(D2:D8)</f>
+        <v>68</v>
+      </c>
+      <c r="E13">
+        <f>SUM(F2:F8)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <f>SUM(E2:E8)</f>
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
